--- a/documentation-generator/vocab_csv/toms.xlsx
+++ b/documentation-generator/vocab_csv/toms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="594">
   <si>
     <t>Term</t>
   </si>
@@ -2129,6 +2129,57 @@
   </si>
   <si>
     <t>DataRestorationPolicy</t>
+  </si>
+  <si>
+    <t>DGA proposals</t>
+  </si>
+  <si>
+    <t>CommercialConfidentialityAgreement</t>
+  </si>
+  <si>
+    <t>ConsentManagement</t>
+  </si>
+  <si>
+    <t>dpv:DataSubjectRightsManagement</t>
+  </si>
+  <si>
+    <t>dpv:RightsManagement</t>
+  </si>
+  <si>
+    <t>PermissionManagement</t>
+  </si>
+  <si>
+    <t>IntellectualPropertyRightsManagement</t>
+  </si>
+  <si>
+    <t>DataAssetList</t>
+  </si>
+  <si>
+    <t>DataBreachNotification</t>
+  </si>
+  <si>
+    <t>DataExchangeMethod</t>
+  </si>
+  <si>
+    <t>DataReusePolicy</t>
+  </si>
+  <si>
+    <t>DataTransferNotice</t>
+  </si>
+  <si>
+    <t>EnforceTransferControl</t>
+  </si>
+  <si>
+    <t>LegalMeasure</t>
+  </si>
+  <si>
+    <t>Licence</t>
+  </si>
+  <si>
+    <t>dpv:ContractualTerms</t>
+  </si>
+  <si>
+    <t>StatisticalConfidentialityAgreement</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2358,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2436,6 +2487,9 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19027,49 +19081,418 @@
       <c r="B76" s="18"/>
     </row>
     <row r="77">
+      <c r="A77" s="12" t="s">
+        <v>577</v>
+      </c>
       <c r="B77" s="18"/>
     </row>
     <row r="78">
+      <c r="A78" s="47" t="s">
+        <v>578</v>
+      </c>
       <c r="B78" s="18"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="13"/>
+      <c r="Z78" s="13"/>
+      <c r="AA78" s="13"/>
+      <c r="AB78" s="13"/>
     </row>
     <row r="79">
+      <c r="A79" s="47" t="s">
+        <v>579</v>
+      </c>
       <c r="B79" s="18"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="47" t="s">
+        <v>580</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="13"/>
+      <c r="Z79" s="13"/>
+      <c r="AA79" s="13"/>
+      <c r="AB79" s="13"/>
     </row>
     <row r="80">
+      <c r="A80" s="47" t="s">
+        <v>580</v>
+      </c>
       <c r="B80" s="18"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="47" t="s">
+        <v>581</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
+      <c r="Y80" s="13"/>
+      <c r="Z80" s="13"/>
+      <c r="AA80" s="13"/>
+      <c r="AB80" s="13"/>
     </row>
     <row r="81">
+      <c r="A81" s="47" t="s">
+        <v>582</v>
+      </c>
       <c r="B81" s="18"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="47" t="s">
+        <v>581</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
+      <c r="Y81" s="13"/>
+      <c r="Z81" s="13"/>
+      <c r="AA81" s="13"/>
+      <c r="AB81" s="13"/>
     </row>
     <row r="82">
+      <c r="A82" s="47" t="s">
+        <v>583</v>
+      </c>
       <c r="B82" s="18"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="47" t="s">
+        <v>581</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="13"/>
+      <c r="X82" s="13"/>
+      <c r="Y82" s="13"/>
+      <c r="Z82" s="13"/>
+      <c r="AA82" s="13"/>
+      <c r="AB82" s="13"/>
     </row>
     <row r="83">
+      <c r="A83" s="47" t="s">
+        <v>584</v>
+      </c>
       <c r="B83" s="18"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13"/>
+      <c r="W83" s="13"/>
+      <c r="X83" s="13"/>
+      <c r="Y83" s="13"/>
+      <c r="Z83" s="13"/>
+      <c r="AA83" s="13"/>
+      <c r="AB83" s="13"/>
     </row>
     <row r="84">
+      <c r="A84" s="47" t="s">
+        <v>585</v>
+      </c>
       <c r="B84" s="18"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
+      <c r="AA84" s="13"/>
+      <c r="AB84" s="13"/>
     </row>
     <row r="85">
+      <c r="A85" s="47" t="s">
+        <v>586</v>
+      </c>
       <c r="B85" s="18"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13"/>
+      <c r="X85" s="13"/>
+      <c r="Y85" s="13"/>
+      <c r="Z85" s="13"/>
+      <c r="AA85" s="13"/>
+      <c r="AB85" s="13"/>
     </row>
     <row r="86">
+      <c r="A86" s="47" t="s">
+        <v>587</v>
+      </c>
       <c r="B86" s="18"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13"/>
+      <c r="V86" s="13"/>
+      <c r="W86" s="13"/>
+      <c r="X86" s="13"/>
+      <c r="Y86" s="13"/>
+      <c r="Z86" s="13"/>
+      <c r="AA86" s="13"/>
+      <c r="AB86" s="13"/>
     </row>
     <row r="87">
+      <c r="A87" s="47" t="s">
+        <v>588</v>
+      </c>
       <c r="B87" s="18"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="13"/>
+      <c r="W87" s="13"/>
+      <c r="X87" s="13"/>
+      <c r="Y87" s="13"/>
+      <c r="Z87" s="13"/>
+      <c r="AA87" s="13"/>
+      <c r="AB87" s="13"/>
     </row>
     <row r="88">
+      <c r="A88" s="47" t="s">
+        <v>589</v>
+      </c>
       <c r="B88" s="18"/>
+      <c r="D88" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="M88" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="89">
+      <c r="A89" s="47" t="s">
+        <v>590</v>
+      </c>
       <c r="B89" s="18"/>
+      <c r="D89" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="90">
+      <c r="A90" s="47" t="s">
+        <v>591</v>
+      </c>
       <c r="B90" s="18"/>
+      <c r="D90" s="47" t="s">
+        <v>592</v>
+      </c>
+      <c r="M90" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="91">
+      <c r="A91" s="47" t="s">
+        <v>593</v>
+      </c>
       <c r="B91" s="18"/>
+      <c r="D91" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="92">
       <c r="B92" s="18"/>
@@ -21714,7 +22137,7 @@
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D6 G1:AB6 E2:E87 F2:F6 A9:A42 B9:D87 F9:I87 J9:J63 K9:AB87 A44:A87 J65:J87">
+  <conditionalFormatting sqref="A1:D6 G1:AB6 E2:E87 F2:F6 A9:A42 B9:D87 F9:I87 J9:J63 K9:L87 M9:M91 N9:AB87 A44:A87 J65:J87">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M1="proposed"</formula>
     </cfRule>
